--- a/dataanalysis/data/predictions/1600/09161509_1510.xlsx
+++ b/dataanalysis/data/predictions/1600/09161509_1510.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="197">
   <si>
     <t>序号</t>
   </si>
@@ -118,6 +118,9 @@
     <t>重合</t>
   </si>
   <si>
+    <t>预测成功</t>
+  </si>
+  <si>
     <t>2025-09-16</t>
   </si>
   <si>
@@ -602,12 +605,6 @@
   </si>
   <si>
     <t>是</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
 </sst>
 </file>
@@ -965,13 +962,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH71"/>
+  <dimension ref="A1:AI71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1074,19 +1071,22 @@
       <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2">
         <v>300004</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2">
         <v>0.6</v>
@@ -1104,7 +1104,7 @@
         <v>177178.55</v>
       </c>
       <c r="J2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K2">
         <v>4</v>
@@ -1146,10 +1146,25 @@
         <v>-1.5</v>
       </c>
       <c r="X2" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="Y2">
+        <v>-1.25</v>
+      </c>
+      <c r="Z2">
+        <v>15.28</v>
+      </c>
+      <c r="AA2">
+        <v>0.53</v>
       </c>
       <c r="AC2" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
       </c>
       <c r="AF2">
         <v>0</v>
@@ -1157,22 +1172,25 @@
       <c r="AG2">
         <v>-1.911746025085449</v>
       </c>
-      <c r="AH2" t="s">
-        <v>196</v>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3">
         <v>300007</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3">
         <v>20</v>
@@ -1190,7 +1208,7 @@
         <v>447901.13</v>
       </c>
       <c r="J3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K3">
         <v>6</v>
@@ -1232,10 +1250,25 @@
         <v>2.5</v>
       </c>
       <c r="X3" t="s">
-        <v>147</v>
+        <v>148</v>
+      </c>
+      <c r="Y3">
+        <v>5.9</v>
+      </c>
+      <c r="Z3">
+        <v>73</v>
+      </c>
+      <c r="AA3">
+        <v>12.45</v>
       </c>
       <c r="AC3" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>1</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -1243,22 +1276,25 @@
       <c r="AG3">
         <v>9.042089462280273</v>
       </c>
-      <c r="AH3" t="s">
-        <v>196</v>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4">
         <v>300014</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>-0.19</v>
@@ -1276,7 +1312,7 @@
         <v>655234.97</v>
       </c>
       <c r="J4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K4">
         <v>8</v>
@@ -1317,8 +1353,23 @@
       <c r="W4">
         <v>-0.53</v>
       </c>
+      <c r="Y4">
+        <v>0.57</v>
+      </c>
+      <c r="Z4">
+        <v>75.64</v>
+      </c>
+      <c r="AA4">
+        <v>2.52</v>
+      </c>
       <c r="AC4" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -1326,22 +1377,25 @@
       <c r="AG4">
         <v>18.47798347473145</v>
       </c>
-      <c r="AH4" t="s">
-        <v>196</v>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5">
         <v>300043</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E5">
         <v>15.92</v>
@@ -1359,7 +1413,7 @@
         <v>309101.77</v>
       </c>
       <c r="J5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K5">
         <v>5</v>
@@ -1401,10 +1455,25 @@
         <v>-0.75</v>
       </c>
       <c r="X5" t="s">
-        <v>148</v>
+        <v>149</v>
+      </c>
+      <c r="Y5">
+        <v>-0.26</v>
+      </c>
+      <c r="Z5">
+        <v>8.19</v>
+      </c>
+      <c r="AA5">
+        <v>6.09</v>
       </c>
       <c r="AC5" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -1412,22 +1481,25 @@
       <c r="AG5">
         <v>-2.762054443359375</v>
       </c>
-      <c r="AH5" t="s">
-        <v>196</v>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6">
         <v>300049</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6">
         <v>4.38</v>
@@ -1445,7 +1517,7 @@
         <v>203878.98</v>
       </c>
       <c r="J6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K6">
         <v>14</v>
@@ -1487,10 +1559,25 @@
         <v>0.34</v>
       </c>
       <c r="X6" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="Y6">
+        <v>2.36</v>
+      </c>
+      <c r="Z6">
+        <v>89.19</v>
+      </c>
+      <c r="AA6">
+        <v>3.9</v>
       </c>
       <c r="AC6" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -1498,22 +1585,25 @@
       <c r="AG6">
         <v>1.479230165481567</v>
       </c>
-      <c r="AH6" t="s">
-        <v>196</v>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7">
         <v>300085</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E7">
         <v>7.05</v>
@@ -1531,7 +1621,7 @@
         <v>524701.7</v>
       </c>
       <c r="J7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -1572,8 +1662,23 @@
       <c r="W7">
         <v>1.15</v>
       </c>
+      <c r="Y7">
+        <v>2.82</v>
+      </c>
+      <c r="Z7">
+        <v>61.87</v>
+      </c>
+      <c r="AA7">
+        <v>6.38</v>
+      </c>
       <c r="AC7" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
       </c>
       <c r="AF7">
         <v>0</v>
@@ -1581,22 +1686,25 @@
       <c r="AG7">
         <v>-25.82589149475098</v>
       </c>
-      <c r="AH7" t="s">
-        <v>196</v>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8">
         <v>300139</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E8">
         <v>5.61</v>
@@ -1614,7 +1722,7 @@
         <v>201218.91</v>
       </c>
       <c r="J8" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K8">
         <v>6</v>
@@ -1656,10 +1764,25 @@
         <v>0.58</v>
       </c>
       <c r="X8" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="Y8">
+        <v>-3.2</v>
+      </c>
+      <c r="Z8">
+        <v>28.1</v>
+      </c>
+      <c r="AA8">
+        <v>0.93</v>
       </c>
       <c r="AC8" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
       </c>
       <c r="AF8">
         <v>0</v>
@@ -1667,22 +1790,25 @@
       <c r="AG8">
         <v>1.087485909461975</v>
       </c>
-      <c r="AH8" t="s">
-        <v>196</v>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9">
         <v>300217</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E9">
         <v>2.81</v>
@@ -1700,7 +1826,7 @@
         <v>63299.07</v>
       </c>
       <c r="J9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K9">
         <v>5</v>
@@ -1741,8 +1867,23 @@
       <c r="W9">
         <v>0.07000000000000001</v>
       </c>
+      <c r="Y9">
+        <v>-0.16</v>
+      </c>
+      <c r="Z9">
+        <v>6.58</v>
+      </c>
+      <c r="AA9">
+        <v>5.96</v>
+      </c>
       <c r="AC9" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -1750,22 +1891,25 @@
       <c r="AG9">
         <v>1.841065049171448</v>
       </c>
-      <c r="AH9" t="s">
-        <v>196</v>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10">
         <v>300237</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E10">
         <v>-6.03</v>
@@ -1783,7 +1927,7 @@
         <v>98517.45</v>
       </c>
       <c r="J10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K10">
         <v>14</v>
@@ -1825,10 +1969,25 @@
         <v>-1.18</v>
       </c>
       <c r="X10" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="Y10">
+        <v>0.53</v>
+      </c>
+      <c r="Z10">
+        <v>3.9</v>
+      </c>
+      <c r="AA10">
+        <v>4.28</v>
       </c>
       <c r="AC10" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
       </c>
       <c r="AF10">
         <v>0</v>
@@ -1836,22 +1995,25 @@
       <c r="AG10">
         <v>1.057850241661072</v>
       </c>
-      <c r="AH10" t="s">
-        <v>196</v>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11">
         <v>300252</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E11">
         <v>4.32</v>
@@ -1869,7 +2031,7 @@
         <v>257686.07</v>
       </c>
       <c r="J11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1911,10 +2073,25 @@
         <v>-0.04</v>
       </c>
       <c r="X11" t="s">
-        <v>152</v>
+        <v>153</v>
+      </c>
+      <c r="Y11">
+        <v>-1.67</v>
+      </c>
+      <c r="Z11">
+        <v>16.61</v>
+      </c>
+      <c r="AA11">
+        <v>2.59</v>
       </c>
       <c r="AC11" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
       </c>
       <c r="AF11">
         <v>0</v>
@@ -1922,22 +2099,25 @@
       <c r="AG11">
         <v>5.963169097900391</v>
       </c>
-      <c r="AH11" t="s">
-        <v>196</v>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:35">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12">
         <v>300274</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E12">
         <v>2.66</v>
@@ -1955,7 +2135,7 @@
         <v>1508277.86</v>
       </c>
       <c r="J12" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K12">
         <v>10</v>
@@ -1997,10 +2177,25 @@
         <v>0.26</v>
       </c>
       <c r="X12" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="Y12">
+        <v>0.48</v>
+      </c>
+      <c r="Z12">
+        <v>144.24</v>
+      </c>
+      <c r="AA12">
+        <v>2.8</v>
       </c>
       <c r="AC12" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
       </c>
       <c r="AF12">
         <v>0</v>
@@ -2008,22 +2203,25 @@
       <c r="AG12">
         <v>11.12526512145996</v>
       </c>
-      <c r="AH12" t="s">
-        <v>196</v>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:35">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13">
         <v>300277</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E13">
         <v>8.41</v>
@@ -2041,7 +2239,7 @@
         <v>68755.8</v>
       </c>
       <c r="J13" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K13">
         <v>6</v>
@@ -2082,8 +2280,23 @@
       <c r="W13">
         <v>0.4</v>
       </c>
+      <c r="Y13">
+        <v>0.38</v>
+      </c>
+      <c r="Z13">
+        <v>16.35</v>
+      </c>
+      <c r="AA13">
+        <v>3.94</v>
+      </c>
       <c r="AC13" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
       </c>
       <c r="AF13">
         <v>0</v>
@@ -2091,22 +2304,25 @@
       <c r="AG13">
         <v>6.695989608764648</v>
       </c>
-      <c r="AH13" t="s">
-        <v>196</v>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:35">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14">
         <v>300290</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E14">
         <v>1.66</v>
@@ -2124,7 +2340,7 @@
         <v>173314.83</v>
       </c>
       <c r="J14" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K14">
         <v>6</v>
@@ -2166,10 +2382,25 @@
         <v>-0.13</v>
       </c>
       <c r="X14" t="s">
-        <v>154</v>
+        <v>155</v>
+      </c>
+      <c r="Y14">
+        <v>-1.22</v>
+      </c>
+      <c r="Z14">
+        <v>32.28</v>
+      </c>
+      <c r="AA14">
+        <v>1.35</v>
       </c>
       <c r="AC14" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
       </c>
       <c r="AF14">
         <v>0</v>
@@ -2177,22 +2408,25 @@
       <c r="AG14">
         <v>4.305154800415039</v>
       </c>
-      <c r="AH14" t="s">
-        <v>196</v>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15" spans="1:35">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15">
         <v>300324</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E15">
         <v>1.38</v>
@@ -2210,7 +2444,7 @@
         <v>160053.36</v>
       </c>
       <c r="J15" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K15">
         <v>4</v>
@@ -2252,10 +2486,25 @@
         <v>-0.44</v>
       </c>
       <c r="X15" t="s">
-        <v>155</v>
+        <v>156</v>
+      </c>
+      <c r="Y15">
+        <v>3.54</v>
+      </c>
+      <c r="Z15">
+        <v>7.81</v>
+      </c>
+      <c r="AA15">
+        <v>6.26</v>
       </c>
       <c r="AC15" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
       </c>
       <c r="AF15">
         <v>0</v>
@@ -2263,22 +2512,25 @@
       <c r="AG15">
         <v>-5.278017997741699</v>
       </c>
-      <c r="AH15" t="s">
-        <v>196</v>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:35">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C16">
         <v>300331</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E16">
         <v>1.91</v>
@@ -2296,7 +2548,7 @@
         <v>147964.52</v>
       </c>
       <c r="J16" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K16">
         <v>8</v>
@@ -2338,10 +2590,25 @@
         <v>-0.03</v>
       </c>
       <c r="X16" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="Y16">
+        <v>14.66</v>
+      </c>
+      <c r="Z16">
+        <v>40.26</v>
+      </c>
+      <c r="AA16">
+        <v>20</v>
       </c>
       <c r="AC16" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>1</v>
       </c>
       <c r="AF16">
         <v>0</v>
@@ -2349,22 +2616,25 @@
       <c r="AG16">
         <v>0.01034643407911062</v>
       </c>
-      <c r="AH16" t="s">
-        <v>196</v>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:34">
+    <row r="17" spans="1:35">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17">
         <v>300363</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E17">
         <v>-1.78</v>
@@ -2382,7 +2652,7 @@
         <v>95955.24000000001</v>
       </c>
       <c r="J17" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -2424,10 +2694,25 @@
         <v>0.33</v>
       </c>
       <c r="X17" t="s">
-        <v>157</v>
+        <v>158</v>
+      </c>
+      <c r="Y17">
+        <v>-0.93</v>
+      </c>
+      <c r="Z17">
+        <v>28.35</v>
+      </c>
+      <c r="AA17">
+        <v>0.96</v>
       </c>
       <c r="AC17" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
       </c>
       <c r="AF17">
         <v>0</v>
@@ -2435,22 +2720,25 @@
       <c r="AG17">
         <v>14.31387042999268</v>
       </c>
-      <c r="AH17" t="s">
-        <v>196</v>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:34">
+    <row r="18" spans="1:35">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18">
         <v>300409</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E18">
         <v>1.37</v>
@@ -2468,7 +2756,7 @@
         <v>202652.36</v>
       </c>
       <c r="J18" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K18">
         <v>22</v>
@@ -2510,10 +2798,25 @@
         <v>-0.37</v>
       </c>
       <c r="X18" t="s">
-        <v>158</v>
+        <v>159</v>
+      </c>
+      <c r="Y18">
+        <v>-0.77</v>
+      </c>
+      <c r="Z18">
+        <v>26.18</v>
+      </c>
+      <c r="AA18">
+        <v>1.04</v>
       </c>
       <c r="AC18" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
       </c>
       <c r="AF18">
         <v>0</v>
@@ -2521,22 +2824,25 @@
       <c r="AG18">
         <v>-53.79883575439453</v>
       </c>
-      <c r="AH18" t="s">
-        <v>196</v>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:34">
+    <row r="19" spans="1:35">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19">
         <v>300428</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E19">
         <v>6.01</v>
@@ -2554,7 +2860,7 @@
         <v>108727.62</v>
       </c>
       <c r="J19" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K19">
         <v>5</v>
@@ -2595,8 +2901,23 @@
       <c r="W19">
         <v>0.21</v>
       </c>
+      <c r="Y19">
+        <v>-3.7</v>
+      </c>
+      <c r="Z19">
+        <v>25.41</v>
+      </c>
+      <c r="AA19">
+        <v>-2.01</v>
+      </c>
       <c r="AC19" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
       </c>
       <c r="AF19">
         <v>0</v>
@@ -2604,22 +2925,25 @@
       <c r="AG19">
         <v>3.850976943969727</v>
       </c>
-      <c r="AH19" t="s">
-        <v>196</v>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:34">
+    <row r="20" spans="1:35">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20">
         <v>300450</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E20">
         <v>-1.06</v>
@@ -2637,7 +2961,7 @@
         <v>1073804.7</v>
       </c>
       <c r="J20" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K20">
         <v>13</v>
@@ -2679,10 +3003,25 @@
         <v>-1.31</v>
       </c>
       <c r="X20" t="s">
-        <v>159</v>
+        <v>160</v>
+      </c>
+      <c r="Y20">
+        <v>-2.6</v>
+      </c>
+      <c r="Z20">
+        <v>54.98</v>
+      </c>
+      <c r="AA20">
+        <v>-0.04</v>
       </c>
       <c r="AC20" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
       </c>
       <c r="AF20">
         <v>0</v>
@@ -2690,22 +3029,25 @@
       <c r="AG20">
         <v>59.47584533691406</v>
       </c>
-      <c r="AH20" t="s">
-        <v>196</v>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:34">
+    <row r="21" spans="1:35">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21">
         <v>300457</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E21">
         <v>-4.54</v>
@@ -2723,7 +3065,7 @@
         <v>218569.47</v>
       </c>
       <c r="J21" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K21">
         <v>11</v>
@@ -2765,10 +3107,25 @@
         <v>-0.76</v>
       </c>
       <c r="X21" t="s">
-        <v>159</v>
+        <v>160</v>
+      </c>
+      <c r="Y21">
+        <v>5.94</v>
+      </c>
+      <c r="Z21">
+        <v>37.9</v>
+      </c>
+      <c r="AA21">
+        <v>14.81</v>
       </c>
       <c r="AC21" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>1</v>
       </c>
       <c r="AF21">
         <v>0</v>
@@ -2776,22 +3133,25 @@
       <c r="AG21">
         <v>1.848066806793213</v>
       </c>
-      <c r="AH21" t="s">
-        <v>196</v>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:34">
+    <row r="22" spans="1:35">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22">
         <v>300469</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E22">
         <v>2.19</v>
@@ -2809,7 +3169,7 @@
         <v>125536.67</v>
       </c>
       <c r="J22" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K22">
         <v>19</v>
@@ -2851,10 +3211,25 @@
         <v>-0.09</v>
       </c>
       <c r="X22" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="Y22">
+        <v>10.81</v>
+      </c>
+      <c r="Z22">
+        <v>90.98999999999999</v>
+      </c>
+      <c r="AA22">
+        <v>13.54</v>
       </c>
       <c r="AC22" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>1</v>
       </c>
       <c r="AF22">
         <v>0</v>
@@ -2862,22 +3237,25 @@
       <c r="AG22">
         <v>5.539271831512451</v>
       </c>
-      <c r="AH22" t="s">
-        <v>196</v>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:34">
+    <row r="23" spans="1:35">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C23">
         <v>300475</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E23">
         <v>-0.45</v>
@@ -2895,7 +3273,7 @@
         <v>376244.22</v>
       </c>
       <c r="J23" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K23">
         <v>8</v>
@@ -2937,10 +3315,25 @@
         <v>-0.03</v>
       </c>
       <c r="X23" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="Y23">
+        <v>4.31</v>
+      </c>
+      <c r="Z23">
+        <v>79.90000000000001</v>
+      </c>
+      <c r="AA23">
+        <v>6.31</v>
       </c>
       <c r="AC23" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
       </c>
       <c r="AF23">
         <v>0</v>
@@ -2948,22 +3341,25 @@
       <c r="AG23">
         <v>8.628662109375</v>
       </c>
-      <c r="AH23" t="s">
-        <v>196</v>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:34">
+    <row r="24" spans="1:35">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C24">
         <v>300476</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E24">
         <v>5.29</v>
@@ -2981,7 +3377,7 @@
         <v>2218535.94</v>
       </c>
       <c r="J24" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K24">
         <v>70</v>
@@ -3023,10 +3419,25 @@
         <v>-0.16</v>
       </c>
       <c r="X24" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="Y24">
+        <v>-3.78</v>
+      </c>
+      <c r="Z24">
+        <v>350.99</v>
+      </c>
+      <c r="AA24">
+        <v>1.15</v>
       </c>
       <c r="AC24" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
       </c>
       <c r="AF24">
         <v>0</v>
@@ -3034,22 +3445,25 @@
       <c r="AG24">
         <v>-15.54768562316895</v>
       </c>
-      <c r="AH24" t="s">
-        <v>196</v>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:34">
+    <row r="25" spans="1:35">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C25">
         <v>300478</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E25">
         <v>5.58</v>
@@ -3067,7 +3481,7 @@
         <v>62301.76</v>
       </c>
       <c r="J25" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -3109,10 +3523,25 @@
         <v>0.12</v>
       </c>
       <c r="X25" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="Y25">
+        <v>0.19</v>
+      </c>
+      <c r="Z25">
+        <v>27.7</v>
+      </c>
+      <c r="AA25">
+        <v>3.9</v>
       </c>
       <c r="AC25" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
       </c>
       <c r="AF25">
         <v>1</v>
@@ -3120,22 +3549,25 @@
       <c r="AG25">
         <v>6.350537776947021</v>
       </c>
-      <c r="AH25" t="s">
-        <v>197</v>
+      <c r="AH25">
+        <v>1</v>
+      </c>
+      <c r="AI25">
+        <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:34">
+    <row r="26" spans="1:35">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C26">
         <v>300503</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E26">
         <v>4.1</v>
@@ -3153,7 +3585,7 @@
         <v>91983.81</v>
       </c>
       <c r="J26" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K26">
         <v>1</v>
@@ -3194,8 +3626,23 @@
       <c r="W26">
         <v>0.51</v>
       </c>
+      <c r="Y26">
+        <v>5.95</v>
+      </c>
+      <c r="Z26">
+        <v>36.88</v>
+      </c>
+      <c r="AA26">
+        <v>14.32</v>
+      </c>
       <c r="AC26" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>1</v>
       </c>
       <c r="AF26">
         <v>0</v>
@@ -3203,22 +3650,25 @@
       <c r="AG26">
         <v>7.323249340057373</v>
       </c>
-      <c r="AH26" t="s">
-        <v>196</v>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:34">
+    <row r="27" spans="1:35">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C27">
         <v>300528</v>
       </c>
       <c r="D27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E27">
         <v>-5.28</v>
@@ -3236,7 +3686,7 @@
         <v>199638.77</v>
       </c>
       <c r="J27" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K27">
         <v>6</v>
@@ -3278,10 +3728,25 @@
         <v>-1.14</v>
       </c>
       <c r="X27" t="s">
-        <v>148</v>
+        <v>149</v>
+      </c>
+      <c r="Y27">
+        <v>-7.38</v>
+      </c>
+      <c r="Z27">
+        <v>30.5</v>
+      </c>
+      <c r="AA27">
+        <v>0</v>
       </c>
       <c r="AC27" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>0</v>
       </c>
       <c r="AF27">
         <v>0</v>
@@ -3289,22 +3754,25 @@
       <c r="AG27">
         <v>4.465062141418457</v>
       </c>
-      <c r="AH27" t="s">
-        <v>196</v>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:34">
+    <row r="28" spans="1:35">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C28">
         <v>300680</v>
       </c>
       <c r="D28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E28">
         <v>3.2</v>
@@ -3322,7 +3790,7 @@
         <v>146741.2</v>
       </c>
       <c r="J28" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K28">
         <v>4</v>
@@ -3364,10 +3832,25 @@
         <v>1.02</v>
       </c>
       <c r="X28" t="s">
-        <v>164</v>
+        <v>165</v>
+      </c>
+      <c r="Y28">
+        <v>6.68</v>
+      </c>
+      <c r="Z28">
+        <v>67.5</v>
+      </c>
+      <c r="AA28">
+        <v>8.85</v>
       </c>
       <c r="AC28" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>1</v>
       </c>
       <c r="AF28">
         <v>0</v>
@@ -3375,22 +3858,25 @@
       <c r="AG28">
         <v>3.675374746322632</v>
       </c>
-      <c r="AH28" t="s">
-        <v>196</v>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:34">
+    <row r="29" spans="1:35">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C29">
         <v>300684</v>
       </c>
       <c r="D29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E29">
         <v>11.4</v>
@@ -3408,7 +3894,7 @@
         <v>204032.81</v>
       </c>
       <c r="J29" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K29">
         <v>1</v>
@@ -3450,10 +3936,25 @@
         <v>0.34</v>
       </c>
       <c r="X29" t="s">
-        <v>165</v>
+        <v>166</v>
+      </c>
+      <c r="Y29">
+        <v>14.09</v>
+      </c>
+      <c r="Z29">
+        <v>46.9</v>
+      </c>
+      <c r="AA29">
+        <v>19.95</v>
       </c>
       <c r="AC29" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>1</v>
       </c>
       <c r="AF29">
         <v>0</v>
@@ -3461,22 +3962,25 @@
       <c r="AG29">
         <v>2.658741235733032</v>
       </c>
-      <c r="AH29" t="s">
-        <v>196</v>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:34">
+    <row r="30" spans="1:35">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C30">
         <v>300701</v>
       </c>
       <c r="D30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E30">
         <v>-2.32</v>
@@ -3494,7 +3998,7 @@
         <v>41729.23</v>
       </c>
       <c r="J30" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K30">
         <v>4</v>
@@ -3535,8 +4039,23 @@
       <c r="W30">
         <v>-0.48</v>
       </c>
+      <c r="Y30">
+        <v>-1.29</v>
+      </c>
+      <c r="Z30">
+        <v>15.95</v>
+      </c>
+      <c r="AA30">
+        <v>8.43</v>
+      </c>
       <c r="AC30" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>1</v>
       </c>
       <c r="AF30">
         <v>0</v>
@@ -3544,22 +4063,25 @@
       <c r="AG30">
         <v>-5.760601997375488</v>
       </c>
-      <c r="AH30" t="s">
-        <v>196</v>
+      <c r="AH30">
+        <v>0</v>
+      </c>
+      <c r="AI30">
+        <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:34">
+    <row r="31" spans="1:35">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C31">
         <v>300727</v>
       </c>
       <c r="D31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E31">
         <v>14.76</v>
@@ -3577,7 +4099,7 @@
         <v>112774.43</v>
       </c>
       <c r="J31" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K31">
         <v>23</v>
@@ -3618,8 +4140,23 @@
       <c r="W31">
         <v>0.7</v>
       </c>
+      <c r="Y31">
+        <v>-6.47</v>
+      </c>
+      <c r="Z31">
+        <v>46.35</v>
+      </c>
+      <c r="AA31">
+        <v>-0.64</v>
+      </c>
       <c r="AC31" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>0</v>
       </c>
       <c r="AF31">
         <v>0</v>
@@ -3627,22 +4164,25 @@
       <c r="AG31">
         <v>-13.8336763381958</v>
       </c>
-      <c r="AH31" t="s">
-        <v>196</v>
+      <c r="AH31">
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:34">
+    <row r="32" spans="1:35">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C32">
         <v>300757</v>
       </c>
       <c r="D32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E32">
         <v>5.58</v>
@@ -3660,7 +4200,7 @@
         <v>271702.84</v>
       </c>
       <c r="J32" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K32">
         <v>17</v>
@@ -3702,10 +4242,25 @@
         <v>0.37</v>
       </c>
       <c r="X32" t="s">
-        <v>166</v>
+        <v>167</v>
+      </c>
+      <c r="Y32">
+        <v>-1.8</v>
+      </c>
+      <c r="Z32">
+        <v>299</v>
+      </c>
+      <c r="AA32">
+        <v>1.05</v>
       </c>
       <c r="AC32" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>0</v>
       </c>
       <c r="AF32">
         <v>0</v>
@@ -3713,22 +4268,25 @@
       <c r="AG32">
         <v>4.190061092376709</v>
       </c>
-      <c r="AH32" t="s">
-        <v>196</v>
+      <c r="AH32">
+        <v>0</v>
+      </c>
+      <c r="AI32">
+        <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:34">
+    <row r="33" spans="1:35">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C33">
         <v>300803</v>
       </c>
       <c r="D33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E33">
         <v>6.22</v>
@@ -3746,7 +4304,7 @@
         <v>816842.75</v>
       </c>
       <c r="J33" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K33">
         <v>26</v>
@@ -3787,8 +4345,23 @@
       <c r="W33">
         <v>0.43</v>
       </c>
+      <c r="Y33">
+        <v>9.619999999999999</v>
+      </c>
+      <c r="Z33">
+        <v>179.01</v>
+      </c>
+      <c r="AA33">
+        <v>13.51</v>
+      </c>
       <c r="AC33" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <v>1</v>
       </c>
       <c r="AF33">
         <v>0</v>
@@ -3796,22 +4369,25 @@
       <c r="AG33">
         <v>-7.910582065582275</v>
       </c>
-      <c r="AH33" t="s">
-        <v>196</v>
+      <c r="AH33">
+        <v>0</v>
+      </c>
+      <c r="AI33">
+        <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:34">
+    <row r="34" spans="1:35">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C34">
         <v>300806</v>
       </c>
       <c r="D34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E34">
         <v>-0.11</v>
@@ -3829,7 +4405,7 @@
         <v>44688.91</v>
       </c>
       <c r="J34" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -3870,8 +4446,23 @@
       <c r="W34">
         <v>0.17</v>
       </c>
+      <c r="Y34">
+        <v>3.36</v>
+      </c>
+      <c r="Z34">
+        <v>27.78</v>
+      </c>
+      <c r="AA34">
+        <v>6.03</v>
+      </c>
       <c r="AC34" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>0</v>
       </c>
       <c r="AF34">
         <v>0</v>
@@ -3879,22 +4470,25 @@
       <c r="AG34">
         <v>-1.603761911392212</v>
       </c>
-      <c r="AH34" t="s">
-        <v>196</v>
+      <c r="AH34">
+        <v>0</v>
+      </c>
+      <c r="AI34">
+        <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:34">
+    <row r="35" spans="1:35">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C35">
         <v>300814</v>
       </c>
       <c r="D35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E35">
         <v>5.19</v>
@@ -3912,7 +4506,7 @@
         <v>113380.6</v>
       </c>
       <c r="J35" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K35">
         <v>1</v>
@@ -3954,10 +4548,25 @@
         <v>0.83</v>
       </c>
       <c r="X35" t="s">
-        <v>167</v>
+        <v>168</v>
+      </c>
+      <c r="Y35">
+        <v>-2.15</v>
+      </c>
+      <c r="Z35">
+        <v>53.13</v>
+      </c>
+      <c r="AA35">
+        <v>2.77</v>
       </c>
       <c r="AC35" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <v>0</v>
       </c>
       <c r="AF35">
         <v>0</v>
@@ -3965,22 +4574,25 @@
       <c r="AG35">
         <v>8.884934425354004</v>
       </c>
-      <c r="AH35" t="s">
-        <v>196</v>
+      <c r="AH35">
+        <v>0</v>
+      </c>
+      <c r="AI35">
+        <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:34">
+    <row r="36" spans="1:35">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C36">
         <v>300852</v>
       </c>
       <c r="D36" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E36">
         <v>-1.32</v>
@@ -3998,7 +4610,7 @@
         <v>62833.76</v>
       </c>
       <c r="J36" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -4040,10 +4652,25 @@
         <v>0.38</v>
       </c>
       <c r="X36" t="s">
-        <v>168</v>
+        <v>169</v>
+      </c>
+      <c r="Y36">
+        <v>6.35</v>
+      </c>
+      <c r="Z36">
+        <v>48.86</v>
+      </c>
+      <c r="AA36">
+        <v>7.38</v>
       </c>
       <c r="AC36" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="AD36">
+        <v>0</v>
+      </c>
+      <c r="AE36">
+        <v>1</v>
       </c>
       <c r="AF36">
         <v>0</v>
@@ -4051,22 +4678,25 @@
       <c r="AG36">
         <v>8.521065711975098</v>
       </c>
-      <c r="AH36" t="s">
-        <v>196</v>
+      <c r="AH36">
+        <v>0</v>
+      </c>
+      <c r="AI36">
+        <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:34">
+    <row r="37" spans="1:35">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C37">
         <v>300857</v>
       </c>
       <c r="D37" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E37">
         <v>13.1</v>
@@ -4084,7 +4714,7 @@
         <v>536211.4</v>
       </c>
       <c r="J37" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K37">
         <v>18</v>
@@ -4126,10 +4756,25 @@
         <v>0.25</v>
       </c>
       <c r="X37" t="s">
-        <v>169</v>
+        <v>170</v>
+      </c>
+      <c r="Y37">
+        <v>6.76</v>
+      </c>
+      <c r="Z37">
+        <v>167.77</v>
+      </c>
+      <c r="AA37">
+        <v>6.87</v>
       </c>
       <c r="AC37" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="AD37">
+        <v>0</v>
+      </c>
+      <c r="AE37">
+        <v>0</v>
       </c>
       <c r="AF37">
         <v>0</v>
@@ -4137,22 +4782,25 @@
       <c r="AG37">
         <v>3.836822748184204</v>
       </c>
-      <c r="AH37" t="s">
-        <v>196</v>
+      <c r="AH37">
+        <v>0</v>
+      </c>
+      <c r="AI37">
+        <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:34">
+    <row r="38" spans="1:35">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C38">
         <v>300859</v>
       </c>
       <c r="D38" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E38">
         <v>1.1</v>
@@ -4170,7 +4818,7 @@
         <v>97966.78</v>
       </c>
       <c r="J38" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K38">
         <v>6</v>
@@ -4212,10 +4860,25 @@
         <v>-0.73</v>
       </c>
       <c r="X38" t="s">
-        <v>170</v>
+        <v>171</v>
+      </c>
+      <c r="Y38">
+        <v>-3.95</v>
+      </c>
+      <c r="Z38">
+        <v>52.48</v>
+      </c>
+      <c r="AA38">
+        <v>1.67</v>
       </c>
       <c r="AC38" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AD38">
+        <v>0</v>
+      </c>
+      <c r="AE38">
+        <v>0</v>
       </c>
       <c r="AF38">
         <v>0</v>
@@ -4223,22 +4886,25 @@
       <c r="AG38">
         <v>-1.421146154403687</v>
       </c>
-      <c r="AH38" t="s">
-        <v>196</v>
+      <c r="AH38">
+        <v>0</v>
+      </c>
+      <c r="AI38">
+        <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:34">
+    <row r="39" spans="1:35">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C39">
         <v>300918</v>
       </c>
       <c r="D39" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E39">
         <v>10.92</v>
@@ -4256,7 +4922,7 @@
         <v>156849.54</v>
       </c>
       <c r="J39" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K39">
         <v>1</v>
@@ -4298,10 +4964,25 @@
         <v>0.12</v>
       </c>
       <c r="X39" t="s">
-        <v>171</v>
+        <v>172</v>
+      </c>
+      <c r="Y39">
+        <v>-4.35</v>
+      </c>
+      <c r="Z39">
+        <v>26.2</v>
+      </c>
+      <c r="AA39">
+        <v>0</v>
       </c>
       <c r="AC39" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="AD39">
+        <v>0</v>
+      </c>
+      <c r="AE39">
+        <v>0</v>
       </c>
       <c r="AF39">
         <v>0</v>
@@ -4309,22 +4990,25 @@
       <c r="AG39">
         <v>-0.4586890935897827</v>
       </c>
-      <c r="AH39" t="s">
-        <v>196</v>
+      <c r="AH39">
+        <v>0</v>
+      </c>
+      <c r="AI39">
+        <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:34">
+    <row r="40" spans="1:35">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C40">
         <v>300953</v>
       </c>
       <c r="D40" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E40">
         <v>8.609999999999999</v>
@@ -4342,7 +5026,7 @@
         <v>203811.71</v>
       </c>
       <c r="J40" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K40">
         <v>15</v>
@@ -4384,10 +5068,25 @@
         <v>0.35</v>
       </c>
       <c r="X40" t="s">
-        <v>172</v>
+        <v>173</v>
+      </c>
+      <c r="Y40">
+        <v>0.01</v>
+      </c>
+      <c r="Z40">
+        <v>181</v>
+      </c>
+      <c r="AA40">
+        <v>4.2</v>
       </c>
       <c r="AC40" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="AD40">
+        <v>0</v>
+      </c>
+      <c r="AE40">
+        <v>0</v>
       </c>
       <c r="AF40">
         <v>0</v>
@@ -4395,22 +5094,25 @@
       <c r="AG40">
         <v>3.772684097290039</v>
       </c>
-      <c r="AH40" t="s">
-        <v>196</v>
+      <c r="AH40">
+        <v>0</v>
+      </c>
+      <c r="AI40">
+        <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:34">
+    <row r="41" spans="1:35">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C41">
         <v>300959</v>
       </c>
       <c r="D41" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E41">
         <v>20.01</v>
@@ -4428,7 +5130,7 @@
         <v>63852.38</v>
       </c>
       <c r="J41" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K41">
         <v>1</v>
@@ -4470,10 +5172,25 @@
         <v>1.27</v>
       </c>
       <c r="X41" t="s">
-        <v>173</v>
+        <v>174</v>
+      </c>
+      <c r="Y41">
+        <v>18.98</v>
+      </c>
+      <c r="Z41">
+        <v>82.7</v>
+      </c>
+      <c r="AA41">
+        <v>19.99</v>
       </c>
       <c r="AC41" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="AD41">
+        <v>1</v>
+      </c>
+      <c r="AE41">
+        <v>1</v>
       </c>
       <c r="AF41">
         <v>1</v>
@@ -4481,22 +5198,25 @@
       <c r="AG41">
         <v>17.72455978393555</v>
       </c>
-      <c r="AH41" t="s">
-        <v>197</v>
+      <c r="AH41">
+        <v>1</v>
+      </c>
+      <c r="AI41">
+        <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:34">
+    <row r="42" spans="1:35">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C42">
         <v>300990</v>
       </c>
       <c r="D42" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E42">
         <v>0.24</v>
@@ -4514,7 +5234,7 @@
         <v>55523.81</v>
       </c>
       <c r="J42" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K42">
         <v>4</v>
@@ -4556,10 +5276,25 @@
         <v>-0.1</v>
       </c>
       <c r="X42" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="Y42">
+        <v>1.38</v>
+      </c>
+      <c r="Z42">
+        <v>88.84999999999999</v>
+      </c>
+      <c r="AA42">
+        <v>4.78</v>
       </c>
       <c r="AC42" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AD42">
+        <v>0</v>
+      </c>
+      <c r="AE42">
+        <v>0</v>
       </c>
       <c r="AF42">
         <v>0</v>
@@ -4567,22 +5302,25 @@
       <c r="AG42">
         <v>3.088014602661133</v>
       </c>
-      <c r="AH42" t="s">
-        <v>196</v>
+      <c r="AH42">
+        <v>0</v>
+      </c>
+      <c r="AI42">
+        <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:34">
+    <row r="43" spans="1:35">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C43">
         <v>301076</v>
       </c>
       <c r="D43" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E43">
         <v>-1.25</v>
@@ -4600,7 +5338,7 @@
         <v>185935.99</v>
       </c>
       <c r="J43" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K43">
         <v>7</v>
@@ -4642,10 +5380,25 @@
         <v>0.02</v>
       </c>
       <c r="X43" t="s">
-        <v>174</v>
+        <v>175</v>
+      </c>
+      <c r="Y43">
+        <v>1.92</v>
+      </c>
+      <c r="Z43">
+        <v>66.48</v>
+      </c>
+      <c r="AA43">
+        <v>8.1</v>
       </c>
       <c r="AC43" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="AD43">
+        <v>0</v>
+      </c>
+      <c r="AE43">
+        <v>1</v>
       </c>
       <c r="AF43">
         <v>0</v>
@@ -4653,22 +5406,25 @@
       <c r="AG43">
         <v>52.98122024536133</v>
       </c>
-      <c r="AH43" t="s">
-        <v>196</v>
+      <c r="AH43">
+        <v>0</v>
+      </c>
+      <c r="AI43">
+        <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:34">
+    <row r="44" spans="1:35">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C44">
         <v>301123</v>
       </c>
       <c r="D44" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E44">
         <v>2.04</v>
@@ -4686,7 +5442,7 @@
         <v>100350.73</v>
       </c>
       <c r="J44" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K44">
         <v>4</v>
@@ -4728,10 +5484,25 @@
         <v>0.48</v>
       </c>
       <c r="X44" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="Y44">
+        <v>8.210000000000001</v>
+      </c>
+      <c r="Z44">
+        <v>54.9</v>
+      </c>
+      <c r="AA44">
+        <v>15.29</v>
       </c>
       <c r="AC44" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="AD44">
+        <v>0</v>
+      </c>
+      <c r="AE44">
+        <v>1</v>
       </c>
       <c r="AF44">
         <v>0</v>
@@ -4739,22 +5510,25 @@
       <c r="AG44">
         <v>-1.436287879943848</v>
       </c>
-      <c r="AH44" t="s">
-        <v>196</v>
+      <c r="AH44">
+        <v>0</v>
+      </c>
+      <c r="AI44">
+        <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:34">
+    <row r="45" spans="1:35">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C45">
         <v>301150</v>
       </c>
       <c r="D45" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E45">
         <v>-5.85</v>
@@ -4772,7 +5546,7 @@
         <v>132441.32</v>
       </c>
       <c r="J45" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K45">
         <v>11</v>
@@ -4814,10 +5588,25 @@
         <v>-0.44</v>
       </c>
       <c r="X45" t="s">
-        <v>176</v>
+        <v>177</v>
+      </c>
+      <c r="Y45">
+        <v>-1.6</v>
+      </c>
+      <c r="Z45">
+        <v>42.87</v>
+      </c>
+      <c r="AA45">
+        <v>3.68</v>
       </c>
       <c r="AC45" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AD45">
+        <v>0</v>
+      </c>
+      <c r="AE45">
+        <v>0</v>
       </c>
       <c r="AF45">
         <v>0</v>
@@ -4825,22 +5614,25 @@
       <c r="AG45">
         <v>-3.397310733795166</v>
       </c>
-      <c r="AH45" t="s">
-        <v>196</v>
+      <c r="AH45">
+        <v>0</v>
+      </c>
+      <c r="AI45">
+        <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:34">
+    <row r="46" spans="1:35">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C46">
         <v>301307</v>
       </c>
       <c r="D46" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E46">
         <v>20</v>
@@ -4858,7 +5650,7 @@
         <v>103166.1</v>
       </c>
       <c r="J46" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K46">
         <v>5</v>
@@ -4899,8 +5691,23 @@
       <c r="W46">
         <v>1.02</v>
       </c>
+      <c r="Y46">
+        <v>-3.17</v>
+      </c>
+      <c r="Z46">
+        <v>42.12</v>
+      </c>
+      <c r="AA46">
+        <v>4.31</v>
+      </c>
       <c r="AC46" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="AD46">
+        <v>0</v>
+      </c>
+      <c r="AE46">
+        <v>0</v>
       </c>
       <c r="AF46">
         <v>1</v>
@@ -4908,22 +5715,25 @@
       <c r="AG46">
         <v>3.333777189254761</v>
       </c>
-      <c r="AH46" t="s">
-        <v>197</v>
+      <c r="AH46">
+        <v>1</v>
+      </c>
+      <c r="AI46">
+        <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:34">
+    <row r="47" spans="1:35">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C47">
         <v>301377</v>
       </c>
       <c r="D47" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E47">
         <v>-1.09</v>
@@ -4941,7 +5751,7 @@
         <v>84442.69</v>
       </c>
       <c r="J47" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K47">
         <v>5</v>
@@ -4983,10 +5793,25 @@
         <v>0.39</v>
       </c>
       <c r="X47" t="s">
-        <v>177</v>
+        <v>178</v>
+      </c>
+      <c r="Y47">
+        <v>-1.27</v>
+      </c>
+      <c r="Z47">
+        <v>86.90000000000001</v>
+      </c>
+      <c r="AA47">
+        <v>0.49</v>
       </c>
       <c r="AC47" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="AD47">
+        <v>0</v>
+      </c>
+      <c r="AE47">
+        <v>0</v>
       </c>
       <c r="AF47">
         <v>0</v>
@@ -4994,22 +5819,25 @@
       <c r="AG47">
         <v>3.751554489135742</v>
       </c>
-      <c r="AH47" t="s">
-        <v>196</v>
+      <c r="AH47">
+        <v>0</v>
+      </c>
+      <c r="AI47">
+        <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:34">
+    <row r="48" spans="1:35">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C48">
         <v>301389</v>
       </c>
       <c r="D48" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E48">
         <v>4.92</v>
@@ -5027,7 +5855,7 @@
         <v>152397.09</v>
       </c>
       <c r="J48" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K48">
         <v>1</v>
@@ -5069,10 +5897,25 @@
         <v>0.72</v>
       </c>
       <c r="X48" t="s">
-        <v>178</v>
+        <v>179</v>
+      </c>
+      <c r="Y48">
+        <v>-4.38</v>
+      </c>
+      <c r="Z48">
+        <v>70.2</v>
+      </c>
+      <c r="AA48">
+        <v>1.37</v>
       </c>
       <c r="AC48" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="AD48">
+        <v>0</v>
+      </c>
+      <c r="AE48">
+        <v>0</v>
       </c>
       <c r="AF48">
         <v>0</v>
@@ -5080,22 +5923,25 @@
       <c r="AG48">
         <v>2.990414142608643</v>
       </c>
-      <c r="AH48" t="s">
-        <v>196</v>
+      <c r="AH48">
+        <v>0</v>
+      </c>
+      <c r="AI48">
+        <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:34">
+    <row r="49" spans="1:35">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C49">
         <v>301398</v>
       </c>
       <c r="D49" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E49">
         <v>3.97</v>
@@ -5113,7 +5959,7 @@
         <v>57125.19</v>
       </c>
       <c r="J49" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K49">
         <v>4</v>
@@ -5155,10 +6001,25 @@
         <v>1.16</v>
       </c>
       <c r="X49" t="s">
-        <v>179</v>
+        <v>180</v>
+      </c>
+      <c r="Y49">
+        <v>3.73</v>
+      </c>
+      <c r="Z49">
+        <v>57.99</v>
+      </c>
+      <c r="AA49">
+        <v>4.86</v>
       </c>
       <c r="AC49" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="AD49">
+        <v>0</v>
+      </c>
+      <c r="AE49">
+        <v>0</v>
       </c>
       <c r="AF49">
         <v>0</v>
@@ -5166,22 +6027,25 @@
       <c r="AG49">
         <v>4.946998119354248</v>
       </c>
-      <c r="AH49" t="s">
-        <v>196</v>
+      <c r="AH49">
+        <v>0</v>
+      </c>
+      <c r="AI49">
+        <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:34">
+    <row r="50" spans="1:35">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C50">
         <v>301413</v>
       </c>
       <c r="D50" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E50">
         <v>20</v>
@@ -5199,7 +6063,7 @@
         <v>148469.98</v>
       </c>
       <c r="J50" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K50">
         <v>18</v>
@@ -5241,10 +6105,25 @@
         <v>1.21</v>
       </c>
       <c r="X50" t="s">
-        <v>180</v>
+        <v>181</v>
+      </c>
+      <c r="Y50">
+        <v>8.539999999999999</v>
+      </c>
+      <c r="Z50">
+        <v>200.15</v>
+      </c>
+      <c r="AA50">
+        <v>11.13</v>
       </c>
       <c r="AC50" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="AD50">
+        <v>0</v>
+      </c>
+      <c r="AE50">
+        <v>1</v>
       </c>
       <c r="AF50">
         <v>0</v>
@@ -5252,22 +6131,25 @@
       <c r="AG50">
         <v>6.912945747375488</v>
       </c>
-      <c r="AH50" t="s">
-        <v>196</v>
+      <c r="AH50">
+        <v>0</v>
+      </c>
+      <c r="AI50">
+        <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:34">
+    <row r="51" spans="1:35">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C51">
         <v>301488</v>
       </c>
       <c r="D51" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E51">
         <v>7.15</v>
@@ -5285,7 +6167,7 @@
         <v>195634.19</v>
       </c>
       <c r="J51" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K51">
         <v>15</v>
@@ -5327,10 +6209,25 @@
         <v>-2.77</v>
       </c>
       <c r="X51" t="s">
-        <v>181</v>
+        <v>182</v>
+      </c>
+      <c r="Y51">
+        <v>14.22</v>
+      </c>
+      <c r="Z51">
+        <v>222.22</v>
+      </c>
+      <c r="AA51">
+        <v>16.42</v>
       </c>
       <c r="AC51" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AD51">
+        <v>0</v>
+      </c>
+      <c r="AE51">
+        <v>1</v>
       </c>
       <c r="AF51">
         <v>0</v>
@@ -5338,22 +6235,25 @@
       <c r="AG51">
         <v>-12.24828433990479</v>
       </c>
-      <c r="AH51" t="s">
-        <v>196</v>
+      <c r="AH51">
+        <v>0</v>
+      </c>
+      <c r="AI51">
+        <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:34">
+    <row r="52" spans="1:35">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C52">
         <v>301489</v>
       </c>
       <c r="D52" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E52">
         <v>4.55</v>
@@ -5371,7 +6271,7 @@
         <v>77140.67999999999</v>
       </c>
       <c r="J52" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K52">
         <v>6</v>
@@ -5413,10 +6313,25 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="X52" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="Y52">
+        <v>-3.32</v>
+      </c>
+      <c r="Z52">
+        <v>227</v>
+      </c>
+      <c r="AA52">
+        <v>0.44</v>
       </c>
       <c r="AC52" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="AD52">
+        <v>0</v>
+      </c>
+      <c r="AE52">
+        <v>0</v>
       </c>
       <c r="AF52">
         <v>0</v>
@@ -5424,22 +6339,25 @@
       <c r="AG52">
         <v>-0.8078767061233521</v>
       </c>
-      <c r="AH52" t="s">
-        <v>196</v>
+      <c r="AH52">
+        <v>0</v>
+      </c>
+      <c r="AI52">
+        <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:34">
+    <row r="53" spans="1:35">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C53">
         <v>301600</v>
       </c>
       <c r="D53" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E53">
         <v>3.26</v>
@@ -5457,7 +6375,7 @@
         <v>63926.39</v>
       </c>
       <c r="J53" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K53">
         <v>1</v>
@@ -5499,10 +6417,25 @@
         <v>0.47</v>
       </c>
       <c r="X53" t="s">
-        <v>183</v>
+        <v>184</v>
+      </c>
+      <c r="Y53">
+        <v>0.87</v>
+      </c>
+      <c r="Z53">
+        <v>156</v>
+      </c>
+      <c r="AA53">
+        <v>4.7</v>
       </c>
       <c r="AC53" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="AD53">
+        <v>0</v>
+      </c>
+      <c r="AE53">
+        <v>0</v>
       </c>
       <c r="AF53">
         <v>0</v>
@@ -5510,22 +6443,25 @@
       <c r="AG53">
         <v>1.383960008621216</v>
       </c>
-      <c r="AH53" t="s">
-        <v>196</v>
+      <c r="AH53">
+        <v>0</v>
+      </c>
+      <c r="AI53">
+        <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:34">
+    <row r="54" spans="1:35">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C54">
         <v>688028</v>
       </c>
       <c r="D54" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E54">
         <v>-4.09</v>
@@ -5543,7 +6479,7 @@
         <v>67265.42999999999</v>
       </c>
       <c r="J54" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K54">
         <v>7</v>
@@ -5584,8 +6520,23 @@
       <c r="W54">
         <v>-0.85</v>
       </c>
+      <c r="Y54">
+        <v>-3.06</v>
+      </c>
+      <c r="Z54">
+        <v>43.9</v>
+      </c>
+      <c r="AA54">
+        <v>1.74</v>
+      </c>
       <c r="AC54" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AD54">
+        <v>0</v>
+      </c>
+      <c r="AE54">
+        <v>0</v>
       </c>
       <c r="AF54">
         <v>0</v>
@@ -5593,22 +6544,25 @@
       <c r="AG54">
         <v>2.280555009841919</v>
       </c>
-      <c r="AH54" t="s">
-        <v>196</v>
+      <c r="AH54">
+        <v>0</v>
+      </c>
+      <c r="AI54">
+        <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:34">
+    <row r="55" spans="1:35">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C55">
         <v>688041</v>
       </c>
       <c r="D55" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E55">
         <v>6.26</v>
@@ -5626,7 +6580,7 @@
         <v>1579479.65</v>
       </c>
       <c r="J55" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K55">
         <v>0</v>
@@ -5668,10 +6622,25 @@
         <v>0</v>
       </c>
       <c r="X55" t="s">
-        <v>184</v>
+        <v>185</v>
+      </c>
+      <c r="Y55">
+        <v>-1.35</v>
+      </c>
+      <c r="Z55">
+        <v>244.97</v>
+      </c>
+      <c r="AA55">
+        <v>-0.42</v>
       </c>
       <c r="AC55" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AD55">
+        <v>0</v>
+      </c>
+      <c r="AE55">
+        <v>0</v>
       </c>
       <c r="AF55">
         <v>0</v>
@@ -5679,22 +6648,25 @@
       <c r="AG55">
         <v>-0.3867490887641907</v>
       </c>
-      <c r="AH55" t="s">
-        <v>196</v>
+      <c r="AH55">
+        <v>0</v>
+      </c>
+      <c r="AI55">
+        <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:34">
+    <row r="56" spans="1:35">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C56">
         <v>688110</v>
       </c>
       <c r="D56" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E56">
         <v>0.63</v>
@@ -5712,7 +6684,7 @@
         <v>324927.18</v>
       </c>
       <c r="J56" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K56">
         <v>3</v>
@@ -5754,10 +6726,25 @@
         <v>-0.09</v>
       </c>
       <c r="X56" t="s">
-        <v>184</v>
+        <v>185</v>
+      </c>
+      <c r="Y56">
+        <v>6.69</v>
+      </c>
+      <c r="Z56">
+        <v>129.95</v>
+      </c>
+      <c r="AA56">
+        <v>9.82</v>
       </c>
       <c r="AC56" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AD56">
+        <v>0</v>
+      </c>
+      <c r="AE56">
+        <v>1</v>
       </c>
       <c r="AF56">
         <v>0</v>
@@ -5765,22 +6752,25 @@
       <c r="AG56">
         <v>23.06565475463867</v>
       </c>
-      <c r="AH56" t="s">
-        <v>196</v>
+      <c r="AH56">
+        <v>0</v>
+      </c>
+      <c r="AI56">
+        <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:34">
+    <row r="57" spans="1:35">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C57">
         <v>688141</v>
       </c>
       <c r="D57" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E57">
         <v>-0.44</v>
@@ -5798,7 +6788,7 @@
         <v>91308.39</v>
       </c>
       <c r="J57" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K57">
         <v>10</v>
@@ -5840,10 +6830,25 @@
         <v>-0.33</v>
       </c>
       <c r="X57" t="s">
-        <v>185</v>
+        <v>186</v>
+      </c>
+      <c r="Y57">
+        <v>-3.26</v>
+      </c>
+      <c r="Z57">
+        <v>52.64</v>
+      </c>
+      <c r="AA57">
+        <v>1.68</v>
       </c>
       <c r="AC57" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AD57">
+        <v>0</v>
+      </c>
+      <c r="AE57">
+        <v>0</v>
       </c>
       <c r="AF57">
         <v>0</v>
@@ -5851,22 +6856,25 @@
       <c r="AG57">
         <v>3.871227502822876</v>
       </c>
-      <c r="AH57" t="s">
-        <v>196</v>
+      <c r="AH57">
+        <v>0</v>
+      </c>
+      <c r="AI57">
+        <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:34">
+    <row r="58" spans="1:35">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C58">
         <v>688147</v>
       </c>
       <c r="D58" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E58">
         <v>-1.25</v>
@@ -5884,7 +6892,7 @@
         <v>55222.76</v>
       </c>
       <c r="J58" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K58">
         <v>22</v>
@@ -5925,8 +6933,23 @@
       <c r="W58">
         <v>0.05</v>
       </c>
+      <c r="Y58">
+        <v>3.02</v>
+      </c>
+      <c r="Z58">
+        <v>50.99</v>
+      </c>
+      <c r="AA58">
+        <v>7.6</v>
+      </c>
       <c r="AC58" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="AD58">
+        <v>0</v>
+      </c>
+      <c r="AE58">
+        <v>1</v>
       </c>
       <c r="AF58">
         <v>0</v>
@@ -5934,22 +6957,25 @@
       <c r="AG58">
         <v>9.324132919311523</v>
       </c>
-      <c r="AH58" t="s">
-        <v>196</v>
+      <c r="AH58">
+        <v>0</v>
+      </c>
+      <c r="AI58">
+        <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:34">
+    <row r="59" spans="1:35">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C59">
         <v>688167</v>
       </c>
       <c r="D59" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E59">
         <v>2.8</v>
@@ -5967,7 +6993,7 @@
         <v>140468.12</v>
       </c>
       <c r="J59" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K59">
         <v>8</v>
@@ -6009,10 +7035,25 @@
         <v>0.28</v>
       </c>
       <c r="X59" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="Y59">
+        <v>6.65</v>
+      </c>
+      <c r="Z59">
+        <v>181.5</v>
+      </c>
+      <c r="AA59">
+        <v>10</v>
       </c>
       <c r="AC59" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="AD59">
+        <v>0</v>
+      </c>
+      <c r="AE59">
+        <v>1</v>
       </c>
       <c r="AF59">
         <v>0</v>
@@ -6020,22 +7061,25 @@
       <c r="AG59">
         <v>3.888733386993408</v>
       </c>
-      <c r="AH59" t="s">
-        <v>196</v>
+      <c r="AH59">
+        <v>0</v>
+      </c>
+      <c r="AI59">
+        <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:34">
+    <row r="60" spans="1:35">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C60">
         <v>688195</v>
       </c>
       <c r="D60" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E60">
         <v>0.85</v>
@@ -6053,7 +7097,7 @@
         <v>147571.19</v>
       </c>
       <c r="J60" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K60">
         <v>22</v>
@@ -6095,10 +7139,25 @@
         <v>-0.43</v>
       </c>
       <c r="X60" t="s">
-        <v>186</v>
+        <v>187</v>
+      </c>
+      <c r="Y60">
+        <v>-0.84</v>
+      </c>
+      <c r="Z60">
+        <v>116.6</v>
+      </c>
+      <c r="AA60">
+        <v>5.11</v>
       </c>
       <c r="AC60" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AD60">
+        <v>0</v>
+      </c>
+      <c r="AE60">
+        <v>0</v>
       </c>
       <c r="AF60">
         <v>0</v>
@@ -6106,22 +7165,25 @@
       <c r="AG60">
         <v>4.892431735992432</v>
       </c>
-      <c r="AH60" t="s">
-        <v>196</v>
+      <c r="AH60">
+        <v>0</v>
+      </c>
+      <c r="AI60">
+        <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:34">
+    <row r="61" spans="1:35">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C61">
         <v>688202</v>
       </c>
       <c r="D61" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E61">
         <v>-0.92</v>
@@ -6139,7 +7201,7 @@
         <v>61492.26</v>
       </c>
       <c r="J61" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K61">
         <v>4</v>
@@ -6181,10 +7243,25 @@
         <v>-0.25</v>
       </c>
       <c r="X61" t="s">
-        <v>187</v>
+        <v>188</v>
+      </c>
+      <c r="Y61">
+        <v>-5.41</v>
+      </c>
+      <c r="Z61">
+        <v>80.93000000000001</v>
+      </c>
+      <c r="AA61">
+        <v>0.72</v>
       </c>
       <c r="AC61" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AD61">
+        <v>0</v>
+      </c>
+      <c r="AE61">
+        <v>0</v>
       </c>
       <c r="AF61">
         <v>0</v>
@@ -6192,22 +7269,25 @@
       <c r="AG61">
         <v>4.6589035987854</v>
       </c>
-      <c r="AH61" t="s">
-        <v>196</v>
+      <c r="AH61">
+        <v>0</v>
+      </c>
+      <c r="AI61">
+        <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:34">
+    <row r="62" spans="1:35">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C62">
         <v>688228</v>
       </c>
       <c r="D62" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E62">
         <v>-2.52</v>
@@ -6225,7 +7305,7 @@
         <v>86611.19</v>
       </c>
       <c r="J62" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K62">
         <v>5</v>
@@ -6267,10 +7347,25 @@
         <v>-0.33</v>
       </c>
       <c r="X62" t="s">
-        <v>188</v>
+        <v>189</v>
+      </c>
+      <c r="Y62">
+        <v>0.55</v>
+      </c>
+      <c r="Z62">
+        <v>185</v>
+      </c>
+      <c r="AA62">
+        <v>3.71</v>
       </c>
       <c r="AC62" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AD62">
+        <v>0</v>
+      </c>
+      <c r="AE62">
+        <v>0</v>
       </c>
       <c r="AF62">
         <v>0</v>
@@ -6278,22 +7373,25 @@
       <c r="AG62">
         <v>-1.500847339630127</v>
       </c>
-      <c r="AH62" t="s">
-        <v>196</v>
+      <c r="AH62">
+        <v>0</v>
+      </c>
+      <c r="AI62">
+        <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:34">
+    <row r="63" spans="1:35">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C63">
         <v>688256</v>
       </c>
       <c r="D63" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E63">
         <v>0.01</v>
@@ -6311,7 +7409,7 @@
         <v>2007469.88</v>
       </c>
       <c r="J63" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K63">
         <v>4</v>
@@ -6353,10 +7451,25 @@
         <v>0.02</v>
       </c>
       <c r="X63" t="s">
-        <v>165</v>
+        <v>166</v>
+      </c>
+      <c r="Y63">
+        <v>0.13</v>
+      </c>
+      <c r="Z63">
+        <v>1470.02</v>
+      </c>
+      <c r="AA63">
+        <v>2.08</v>
       </c>
       <c r="AC63" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="AD63">
+        <v>0</v>
+      </c>
+      <c r="AE63">
+        <v>0</v>
       </c>
       <c r="AF63">
         <v>1</v>
@@ -6364,22 +7477,25 @@
       <c r="AG63">
         <v>9.970945358276367</v>
       </c>
-      <c r="AH63" t="s">
-        <v>197</v>
+      <c r="AH63">
+        <v>1</v>
+      </c>
+      <c r="AI63">
+        <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:34">
+    <row r="64" spans="1:35">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C64">
         <v>688325</v>
       </c>
       <c r="D64" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E64">
         <v>-3.36</v>
@@ -6397,7 +7513,7 @@
         <v>34478.52</v>
       </c>
       <c r="J64" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K64">
         <v>3</v>
@@ -6439,10 +7555,25 @@
         <v>-0.58</v>
       </c>
       <c r="X64" t="s">
-        <v>189</v>
+        <v>190</v>
+      </c>
+      <c r="Y64">
+        <v>0.89</v>
+      </c>
+      <c r="Z64">
+        <v>79.58</v>
+      </c>
+      <c r="AA64">
+        <v>2.94</v>
       </c>
       <c r="AC64" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AD64">
+        <v>0</v>
+      </c>
+      <c r="AE64">
+        <v>0</v>
       </c>
       <c r="AF64">
         <v>0</v>
@@ -6450,22 +7581,25 @@
       <c r="AG64">
         <v>4.247467517852783</v>
       </c>
-      <c r="AH64" t="s">
-        <v>196</v>
+      <c r="AH64">
+        <v>0</v>
+      </c>
+      <c r="AI64">
+        <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:34">
+    <row r="65" spans="1:35">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C65">
         <v>688347</v>
       </c>
       <c r="D65" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E65">
         <v>0.05</v>
@@ -6483,7 +7617,7 @@
         <v>180805.12</v>
       </c>
       <c r="J65" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K65">
         <v>4</v>
@@ -6524,8 +7658,23 @@
       <c r="W65">
         <v>-0.51</v>
       </c>
+      <c r="Y65">
+        <v>4.93</v>
+      </c>
+      <c r="Z65">
+        <v>81.59999999999999</v>
+      </c>
+      <c r="AA65">
+        <v>6.11</v>
+      </c>
       <c r="AC65" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AD65">
+        <v>0</v>
+      </c>
+      <c r="AE65">
+        <v>0</v>
       </c>
       <c r="AF65">
         <v>0</v>
@@ -6533,22 +7682,25 @@
       <c r="AG65">
         <v>11.10491275787354</v>
       </c>
-      <c r="AH65" t="s">
-        <v>196</v>
+      <c r="AH65">
+        <v>0</v>
+      </c>
+      <c r="AI65">
+        <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:34">
+    <row r="66" spans="1:35">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C66">
         <v>688388</v>
       </c>
       <c r="D66" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E66">
         <v>6.19</v>
@@ -6566,7 +7718,7 @@
         <v>131108.67</v>
       </c>
       <c r="J66" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K66">
         <v>11</v>
@@ -6608,10 +7760,25 @@
         <v>0.99</v>
       </c>
       <c r="X66" t="s">
-        <v>190</v>
+        <v>191</v>
+      </c>
+      <c r="Y66">
+        <v>-0.58</v>
+      </c>
+      <c r="Z66">
+        <v>36.36</v>
+      </c>
+      <c r="AA66">
+        <v>5.39</v>
       </c>
       <c r="AC66" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="AD66">
+        <v>0</v>
+      </c>
+      <c r="AE66">
+        <v>0</v>
       </c>
       <c r="AF66">
         <v>0</v>
@@ -6619,22 +7786,25 @@
       <c r="AG66">
         <v>3.440748691558838</v>
       </c>
-      <c r="AH66" t="s">
-        <v>196</v>
+      <c r="AH66">
+        <v>0</v>
+      </c>
+      <c r="AI66">
+        <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:34">
+    <row r="67" spans="1:35">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C67">
         <v>688411</v>
       </c>
       <c r="D67" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E67">
         <v>5.2</v>
@@ -6652,7 +7822,7 @@
         <v>89431.77</v>
       </c>
       <c r="J67" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K67">
         <v>11</v>
@@ -6694,10 +7864,25 @@
         <v>-0.24</v>
       </c>
       <c r="X67" t="s">
-        <v>191</v>
+        <v>192</v>
+      </c>
+      <c r="Y67">
+        <v>0.67</v>
+      </c>
+      <c r="Z67">
+        <v>218</v>
+      </c>
+      <c r="AA67">
+        <v>4.51</v>
       </c>
       <c r="AC67" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AD67">
+        <v>0</v>
+      </c>
+      <c r="AE67">
+        <v>0</v>
       </c>
       <c r="AF67">
         <v>0</v>
@@ -6705,22 +7890,25 @@
       <c r="AG67">
         <v>-9.761064529418945</v>
       </c>
-      <c r="AH67" t="s">
-        <v>196</v>
+      <c r="AH67">
+        <v>0</v>
+      </c>
+      <c r="AI67">
+        <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:34">
+    <row r="68" spans="1:35">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C68">
         <v>688521</v>
       </c>
       <c r="D68" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E68">
         <v>-0.4</v>
@@ -6738,7 +7926,7 @@
         <v>520210.38</v>
       </c>
       <c r="J68" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K68">
         <v>10</v>
@@ -6780,10 +7968,25 @@
         <v>-0.05</v>
       </c>
       <c r="X68" t="s">
-        <v>192</v>
+        <v>193</v>
+      </c>
+      <c r="Y68">
+        <v>-4.31</v>
+      </c>
+      <c r="Z68">
+        <v>180.55</v>
+      </c>
+      <c r="AA68">
+        <v>-0.02</v>
       </c>
       <c r="AC68" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AD68">
+        <v>0</v>
+      </c>
+      <c r="AE68">
+        <v>0</v>
       </c>
       <c r="AF68">
         <v>0</v>
@@ -6791,22 +7994,25 @@
       <c r="AG68">
         <v>6.672299385070801</v>
       </c>
-      <c r="AH68" t="s">
-        <v>196</v>
+      <c r="AH68">
+        <v>0</v>
+      </c>
+      <c r="AI68">
+        <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:34">
+    <row r="69" spans="1:35">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C69">
         <v>688627</v>
       </c>
       <c r="D69" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E69">
         <v>-1.9</v>
@@ -6824,7 +8030,7 @@
         <v>45030.58</v>
       </c>
       <c r="J69" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K69">
         <v>3</v>
@@ -6865,8 +8071,23 @@
       <c r="W69">
         <v>-0.05</v>
       </c>
+      <c r="Y69">
+        <v>15.16</v>
+      </c>
+      <c r="Z69">
+        <v>146.32</v>
+      </c>
+      <c r="AA69">
+        <v>18</v>
+      </c>
       <c r="AC69" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AD69">
+        <v>0</v>
+      </c>
+      <c r="AE69">
+        <v>1</v>
       </c>
       <c r="AF69">
         <v>0</v>
@@ -6874,22 +8095,25 @@
       <c r="AG69">
         <v>21.76065444946289</v>
       </c>
-      <c r="AH69" t="s">
-        <v>196</v>
+      <c r="AH69">
+        <v>0</v>
+      </c>
+      <c r="AI69">
+        <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:34">
+    <row r="70" spans="1:35">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C70">
         <v>688629</v>
       </c>
       <c r="D70" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E70">
         <v>2.21</v>
@@ -6907,7 +8131,7 @@
         <v>148369</v>
       </c>
       <c r="J70" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K70">
         <v>4</v>
@@ -6949,10 +8173,25 @@
         <v>0.64</v>
       </c>
       <c r="X70" t="s">
-        <v>193</v>
+        <v>194</v>
+      </c>
+      <c r="Y70">
+        <v>-0.44</v>
+      </c>
+      <c r="Z70">
+        <v>90.14</v>
+      </c>
+      <c r="AA70">
+        <v>1.39</v>
       </c>
       <c r="AC70" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="AD70">
+        <v>0</v>
+      </c>
+      <c r="AE70">
+        <v>0</v>
       </c>
       <c r="AF70">
         <v>0</v>
@@ -6960,22 +8199,25 @@
       <c r="AG70">
         <v>2.397388219833374</v>
       </c>
-      <c r="AH70" t="s">
-        <v>196</v>
+      <c r="AH70">
+        <v>0</v>
+      </c>
+      <c r="AI70">
+        <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:34">
+    <row r="71" spans="1:35">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C71">
         <v>688766</v>
       </c>
       <c r="D71" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E71">
         <v>20</v>
@@ -6993,7 +8235,7 @@
         <v>220521.5</v>
       </c>
       <c r="J71" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K71">
         <v>1</v>
@@ -7034,8 +8276,23 @@
       <c r="W71">
         <v>0.97</v>
       </c>
+      <c r="Y71">
+        <v>-0.46</v>
+      </c>
+      <c r="Z71">
+        <v>114.44</v>
+      </c>
+      <c r="AA71">
+        <v>8.369999999999999</v>
+      </c>
       <c r="AC71" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="AD71">
+        <v>1</v>
+      </c>
+      <c r="AE71">
+        <v>1</v>
       </c>
       <c r="AF71">
         <v>1</v>
@@ -7043,8 +8300,11 @@
       <c r="AG71">
         <v>12.56118392944336</v>
       </c>
-      <c r="AH71" t="s">
-        <v>197</v>
+      <c r="AH71">
+        <v>1</v>
+      </c>
+      <c r="AI71">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
